--- a/result/problem_1/meonf/result_3.xlsx
+++ b/result/problem_1/meonf/result_3.xlsx
@@ -729,13 +729,13 @@
         <v>10818</v>
       </c>
       <c r="D13" t="n">
-        <v>11525</v>
+        <v>11413</v>
       </c>
       <c r="E13" t="n">
         <v>11250</v>
       </c>
       <c r="F13" t="n">
-        <v>275</v>
+        <v>163</v>
       </c>
       <c r="G13" t="n">
         <v>595</v>
@@ -1255,10 +1255,10 @@
         <v>11481487</v>
       </c>
       <c r="C36" t="n">
-        <v>11294</v>
+        <v>11413</v>
       </c>
       <c r="D36" t="n">
-        <v>11406</v>
+        <v>11525</v>
       </c>
       <c r="E36" t="n">
         <v>13500</v>
